--- a/data/nzd0193/nzd0193.xlsx
+++ b/data/nzd0193/nzd0193.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E603"/>
+  <dimension ref="A1:E615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12574,6 +12574,258 @@
         <v>391.6144444444445</v>
       </c>
       <c r="E603" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>370.3363636363636</v>
+      </c>
+      <c r="C604" t="n">
+        <v>369.3088888888889</v>
+      </c>
+      <c r="D604" t="n">
+        <v>372.1877777777778</v>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>368.2390909090909</v>
+      </c>
+      <c r="C605" t="n">
+        <v>360.7211111111111</v>
+      </c>
+      <c r="D605" t="n">
+        <v>385.8722222222222</v>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>351.8745454545455</v>
+      </c>
+      <c r="C606" t="n">
+        <v>370.7755555555556</v>
+      </c>
+      <c r="D606" t="n">
+        <v>369.4211111111111</v>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>363.3863636363636</v>
+      </c>
+      <c r="C607" t="n">
+        <v>369.7033333333333</v>
+      </c>
+      <c r="D607" t="n">
+        <v>374.4966666666666</v>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>361.7845454545454</v>
+      </c>
+      <c r="C608" t="n">
+        <v>355.7477777777778</v>
+      </c>
+      <c r="D608" t="n">
+        <v>377.3555555555556</v>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>364.9536363636364</v>
+      </c>
+      <c r="C609" t="n">
+        <v>370.6677777777778</v>
+      </c>
+      <c r="D609" t="n">
+        <v>372.3855555555555</v>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>384.15</v>
+      </c>
+      <c r="C610" t="n">
+        <v>379.6188888888889</v>
+      </c>
+      <c r="D610" t="n">
+        <v>386.9477777777778</v>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>379.8536363636364</v>
+      </c>
+      <c r="C611" t="n">
+        <v>375.3722222222222</v>
+      </c>
+      <c r="D611" t="n">
+        <v>378.3444444444444</v>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>366.0245454545454</v>
+      </c>
+      <c r="C612" t="n">
+        <v>370.3533333333333</v>
+      </c>
+      <c r="D612" t="n">
+        <v>378.0866666666667</v>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>374.3254545454545</v>
+      </c>
+      <c r="C613" t="n">
+        <v>365.8388888888889</v>
+      </c>
+      <c r="D613" t="n">
+        <v>367.3977777777778</v>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>369.9854545454546</v>
+      </c>
+      <c r="C614" t="n">
+        <v>369.1444444444445</v>
+      </c>
+      <c r="D614" t="n">
+        <v>371.2788888888889</v>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>370.6463636363636</v>
+      </c>
+      <c r="C615" t="n">
+        <v>370.4588888888889</v>
+      </c>
+      <c r="D615" t="n">
+        <v>369.0377777777778</v>
+      </c>
+      <c r="E615" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12590,7 +12842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B712"/>
+  <dimension ref="A1:B724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19718,6 +19970,126 @@
       </c>
       <c r="B712" t="n">
         <v>0.65</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -19886,28 +20258,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2571415346434047</v>
+        <v>0.3014895251270597</v>
       </c>
       <c r="J2" t="n">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="K2" t="n">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02296294299425683</v>
+        <v>0.03177727331959501</v>
       </c>
       <c r="M2" t="n">
-        <v>9.996875957264486</v>
+        <v>10.02931395367952</v>
       </c>
       <c r="N2" t="n">
-        <v>155.6266375562943</v>
+        <v>156.2644504827778</v>
       </c>
       <c r="O2" t="n">
-        <v>12.4750405833526</v>
+        <v>12.50057800594748</v>
       </c>
       <c r="P2" t="n">
-        <v>350.9444079693005</v>
+        <v>350.5124092936466</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -19963,28 +20335,28 @@
         <v>0.1019</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4346360278531706</v>
+        <v>0.4784062550704933</v>
       </c>
       <c r="J3" t="n">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="K3" t="n">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0550871318402667</v>
+        <v>0.06739859702068518</v>
       </c>
       <c r="M3" t="n">
-        <v>10.65181504346346</v>
+        <v>10.64060687220701</v>
       </c>
       <c r="N3" t="n">
-        <v>178.6983860070477</v>
+        <v>178.1457852509259</v>
       </c>
       <c r="O3" t="n">
-        <v>13.36781156386668</v>
+        <v>13.34712647916869</v>
       </c>
       <c r="P3" t="n">
-        <v>346.6861860926582</v>
+        <v>346.2594744979541</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -20040,28 +20412,28 @@
         <v>0.0518</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5974498005067754</v>
+        <v>0.5475321730250908</v>
       </c>
       <c r="J4" t="n">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="K4" t="n">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01672454838353221</v>
+        <v>0.01472044410370754</v>
       </c>
       <c r="M4" t="n">
-        <v>25.82271528726465</v>
+        <v>25.34945661459464</v>
       </c>
       <c r="N4" t="n">
-        <v>1157.824813047453</v>
+        <v>1131.797936604087</v>
       </c>
       <c r="O4" t="n">
-        <v>34.02682490399969</v>
+        <v>33.64220469297587</v>
       </c>
       <c r="P4" t="n">
-        <v>370.9203487596478</v>
+        <v>371.4107289152118</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -20098,7 +20470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E603"/>
+  <dimension ref="A1:E615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35335,6 +35707,330 @@
         </is>
       </c>
     </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>-37.16588742030177,175.88167253602415</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>-37.166601894812274,175.8817330274949</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>-37.16731285213448,175.8818372640267</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>-37.16588930498769,175.88164905022546</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-37.16660961213205,175.8816368584482</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>-37.16730055443818,175.88199050875215</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-37.165904010607775,175.88146579579163</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-37.16660057679934,175.88174945175712</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>-37.16731533841004,175.88180628160873</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>-37.16589366580805,175.8815947081334</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>-37.16660154034689,175.8817374446261</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>-37.16731077723652,175.88186312003467</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>-37.165895105249135,175.88157677055838</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>-37.16661408133247,175.88158116524846</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>-37.16730820806975,175.881895135195</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:06:10+00:00</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>-37.16589225740791,175.88161225885864</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>-37.1666006736534,175.88174824482272</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>-37.167312674400414,175.88183947883402</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>-37.165875006748124,175.88182722463537</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>-37.1665926297327,175.88184848257737</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>-37.16729958786846,175.88200255331705</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>-37.16587886767476,175.88177911287016</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>-37.16659644601239,175.88180092688333</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>-37.16730731939367,175.88190620922964</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>-37.16589129505413,175.88162425117505</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>-37.16660095622754,175.8817447235605</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>-37.16730755104866,175.88190332251503</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>-37.16588383554618,175.8817172068847</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>-37.16660501310205,175.88169416918078</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>-37.16731715668118,175.8817836233809</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>-37.165887735641824,175.88166860645413</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>-37.166602042589325,175.88173118598667</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>-37.16731366891184,175.8818270858672</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>-37.165887141724056,175.88167600748366</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>-37.16660086137051,175.88174590560968</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>-37.167315682893374,175.88180198886383</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0193/nzd0193.xlsx
+++ b/data/nzd0193/nzd0193.xlsx
@@ -20103,7 +20103,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20194,35 +20194,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -20281,27 +20286,28 @@
       <c r="P2" t="n">
         <v>350.5124092936466</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.87752539145956 -37.166220146579214, 175.8878184485134 -37.165394061143346)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.8775253914596</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.16622014657921</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.8878184485134</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.16539406114335</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.8826719199865</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.16580710386128</v>
       </c>
     </row>
@@ -20358,27 +20364,28 @@
       <c r="P3" t="n">
         <v>346.2594744979541</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.87759735044787 -37.166933700657424, 175.8878904694895 -37.166107610708686)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.8775973504479</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.16693370065742</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.8878904694895</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.16610761070869</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.8827439099687</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.16652065568306</v>
       </c>
     </row>
@@ -20435,27 +20442,28 @@
       <c r="P4" t="n">
         <v>371.4107289152118</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.8776693094357 -37.16764724799866, 175.88796249046663 -37.166821153537)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.8776693094357</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.16764724799866</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.8879624904666</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.166821153537</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.8828158999512</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.16723420076783</v>
       </c>
     </row>

--- a/data/nzd0193/nzd0193.xlsx
+++ b/data/nzd0193/nzd0193.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E615"/>
+  <dimension ref="A1:E624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12828,6 +12828,191 @@
       <c r="E615" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr"/>
+      <c r="C616" t="inlineStr"/>
+      <c r="D616" t="n">
+        <v>362.0122222222223</v>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>368.8681818181818</v>
+      </c>
+      <c r="C617" t="n">
+        <v>362.0444444444445</v>
+      </c>
+      <c r="D617" t="n">
+        <v>372.2588888888889</v>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>376.2954545454546</v>
+      </c>
+      <c r="C618" t="n">
+        <v>370.6444444444445</v>
+      </c>
+      <c r="D618" t="n">
+        <v>389.7588888888889</v>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-20 21:59:32+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>379.9563636363636</v>
+      </c>
+      <c r="C619" t="n">
+        <v>374.9866666666667</v>
+      </c>
+      <c r="D619" t="n">
+        <v>385.1333333333333</v>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>368.3127272727273</v>
+      </c>
+      <c r="C620" t="n">
+        <v>371.0844444444445</v>
+      </c>
+      <c r="D620" t="n">
+        <v>365.2188888888889</v>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>373.5263636363636</v>
+      </c>
+      <c r="C621" t="n">
+        <v>356.9244444444445</v>
+      </c>
+      <c r="D621" t="n">
+        <v>377.1988888888889</v>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>371.3854545454545</v>
+      </c>
+      <c r="C622" t="n">
+        <v>366.8211111111111</v>
+      </c>
+      <c r="D622" t="n">
+        <v>375.4322222222222</v>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>367.009090909091</v>
+      </c>
+      <c r="C623" t="n">
+        <v>359.1933333333333</v>
+      </c>
+      <c r="D623" t="n">
+        <v>373.0766666666667</v>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>357.7236363636364</v>
+      </c>
+      <c r="C624" t="n">
+        <v>347.8</v>
+      </c>
+      <c r="D624" t="n">
+        <v>366.55</v>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -12842,7 +13027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B724"/>
+  <dimension ref="A1:B733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20090,6 +20275,96 @@
       </c>
       <c r="B724" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2025-03-20 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2025-04-21 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -20263,28 +20538,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3014895251270597</v>
+        <v>0.3325280672588443</v>
       </c>
       <c r="J2" t="n">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="K2" t="n">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03177727331959501</v>
+        <v>0.0387852038590456</v>
       </c>
       <c r="M2" t="n">
-        <v>10.02931395367952</v>
+        <v>10.04815576736219</v>
       </c>
       <c r="N2" t="n">
-        <v>156.2644504827778</v>
+        <v>156.6104652169382</v>
       </c>
       <c r="O2" t="n">
-        <v>12.50057800594748</v>
+        <v>12.51441030240491</v>
       </c>
       <c r="P2" t="n">
-        <v>350.5124092936466</v>
+        <v>350.2066517626601</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20341,28 +20616,28 @@
         <v>0.1019</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4784062550704933</v>
+        <v>0.4914468015554196</v>
       </c>
       <c r="J3" t="n">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="K3" t="n">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06739859702068518</v>
+        <v>0.07214436634027499</v>
       </c>
       <c r="M3" t="n">
-        <v>10.64060687220701</v>
+        <v>10.59828628025284</v>
       </c>
       <c r="N3" t="n">
-        <v>178.1457852509259</v>
+        <v>176.9823188586849</v>
       </c>
       <c r="O3" t="n">
-        <v>13.34712647916869</v>
+        <v>13.30347018107249</v>
       </c>
       <c r="P3" t="n">
-        <v>346.2594744979541</v>
+        <v>346.1310601804221</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20419,28 +20694,28 @@
         <v>0.0518</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5475321730250908</v>
+        <v>0.5095770576100191</v>
       </c>
       <c r="J4" t="n">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="K4" t="n">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01472044410370754</v>
+        <v>0.01317656503757902</v>
       </c>
       <c r="M4" t="n">
-        <v>25.34945661459464</v>
+        <v>25.03086668307273</v>
       </c>
       <c r="N4" t="n">
-        <v>1131.797936604087</v>
+        <v>1114.090684420482</v>
       </c>
       <c r="O4" t="n">
-        <v>33.64220469297587</v>
+        <v>33.37799701031328</v>
       </c>
       <c r="P4" t="n">
-        <v>371.4107289152118</v>
+        <v>371.7882151868388</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20478,7 +20753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E615"/>
+  <dimension ref="A1:E624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36039,6 +36314,241 @@
         </is>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr"/>
+      <c r="C616" t="inlineStr"/>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>-37.167321996396794,175.88172331341806</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>-37.16588873966409,175.8816560949472</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>-37.16660842293696,175.88165167761588</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>-37.1673127882301,175.88183806036193</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>-37.16588206521975,175.8817392674467</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>-37.1666006946218,175.88174798352765</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>-37.167297061601,175.88203403342806</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-20 21:59:32+00:00</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>-37.16587877535915,175.88178026323618</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>-37.16659679249212,175.88179660929384</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>-37.1673012184549,175.88198223433488</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>-37.165889238815424,175.88164987482443</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>-37.16660029921755,175.8817529108062</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>-37.16731911473774,175.8817592231681</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>-37.16588455364236,175.8817082584607</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>-37.16661302394356,175.8815943419915</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>-37.16730834885991,175.88189338076927</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>-37.16588647754862,175.88168428401306</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>-37.166604130436596,175.88170516846063</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>-37.167309936491854,175.88187359681888</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>-37.16589041030847,175.88163527636885</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>-37.16661098504602,175.88161974983655</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>-37.16731205332939,175.8818472182167</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>-37.16589875448983,175.88153129544236</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>-37.16662122341235,175.88149216311834</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>-37.16731791853651,175.8817741295706</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0193/nzd0193.xlsx
+++ b/data/nzd0193/nzd0193.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E624"/>
+  <dimension ref="A1:E628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13013,6 +13013,86 @@
       <c r="E624" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>362.3281818181818</v>
+      </c>
+      <c r="C625" t="n">
+        <v>364.81</v>
+      </c>
+      <c r="D625" t="inlineStr"/>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>360.5081818181818</v>
+      </c>
+      <c r="C626" t="n">
+        <v>349.5255555555556</v>
+      </c>
+      <c r="D626" t="n">
+        <v>368.7511111111111</v>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>363.4554545454546</v>
+      </c>
+      <c r="C627" t="n">
+        <v>353.3322222222222</v>
+      </c>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>365.5863636363636</v>
+      </c>
+      <c r="C628" t="n">
+        <v>366.1166666666667</v>
+      </c>
+      <c r="D628" t="n">
+        <v>364.5633333333333</v>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -13027,7 +13107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B733"/>
+  <dimension ref="A1:B737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20365,6 +20445,46 @@
       </c>
       <c r="B733" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -20538,28 +20658,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3325280672588443</v>
+        <v>0.3378361414573703</v>
       </c>
       <c r="J2" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K2" t="n">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0387852038590456</v>
+        <v>0.04046174902177357</v>
       </c>
       <c r="M2" t="n">
-        <v>10.04815576736219</v>
+        <v>10.00398200495848</v>
       </c>
       <c r="N2" t="n">
-        <v>156.6104652169382</v>
+        <v>155.6482707143469</v>
       </c>
       <c r="O2" t="n">
-        <v>12.51441030240491</v>
+        <v>12.47590761084527</v>
       </c>
       <c r="P2" t="n">
-        <v>350.2066517626601</v>
+        <v>350.1539685273812</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20616,28 +20736,28 @@
         <v>0.1019</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4914468015554196</v>
+        <v>0.490971546490143</v>
       </c>
       <c r="J3" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K3" t="n">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07214436634027499</v>
+        <v>0.07276867848925694</v>
       </c>
       <c r="M3" t="n">
-        <v>10.59828628025284</v>
+        <v>10.57349426194538</v>
       </c>
       <c r="N3" t="n">
-        <v>176.9823188586849</v>
+        <v>176.1025916470946</v>
       </c>
       <c r="O3" t="n">
-        <v>13.30347018107249</v>
+        <v>13.27036516630551</v>
       </c>
       <c r="P3" t="n">
-        <v>346.1310601804221</v>
+        <v>346.1357790317277</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20694,28 +20814,28 @@
         <v>0.0518</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5095770576100191</v>
+        <v>0.4960289545708199</v>
       </c>
       <c r="J4" t="n">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K4" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01317656503757902</v>
+        <v>0.01257195789068499</v>
       </c>
       <c r="M4" t="n">
-        <v>25.03086668307273</v>
+        <v>24.97700878599024</v>
       </c>
       <c r="N4" t="n">
-        <v>1114.090684420482</v>
+        <v>1110.824964765221</v>
       </c>
       <c r="O4" t="n">
-        <v>33.37799701031328</v>
+        <v>33.32904086176529</v>
       </c>
       <c r="P4" t="n">
-        <v>371.7882151868388</v>
+        <v>371.9239880442921</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20753,7 +20873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E624"/>
+  <dimension ref="A1:E628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36549,6 +36669,106 @@
         </is>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>-37.165894616721765,175.88158285833933</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>-37.16660593770298,175.88168264731036</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr"/>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>-37.16589625222524,175.88156247750706</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>-37.16661967278886,175.88151148652403</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>-37.167315940506896,175.88179877863723</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>-37.16589360372085,175.88159548183128</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>-37.16661625202053,175.8815541149738</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr"/>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>-37.16589168881873,175.881619344302</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>-37.166604763479555,175.88169727983689</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>-37.16731970385116,175.8817518819513</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0193/nzd0193.xlsx
+++ b/data/nzd0193/nzd0193.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E628"/>
+  <dimension ref="A1:E630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13091,6 +13091,46 @@
         <v>364.5633333333333</v>
       </c>
       <c r="E628" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>367.5663636363636</v>
+      </c>
+      <c r="C629" t="n">
+        <v>358.4911111111111</v>
+      </c>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>346.4736363636364</v>
+      </c>
+      <c r="C630" t="n">
+        <v>352.2888888888889</v>
+      </c>
+      <c r="D630" t="n">
+        <v>421.9077777777778</v>
+      </c>
+      <c r="E630" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13107,7 +13147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B737"/>
+  <dimension ref="A1:B739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20485,6 +20525,26 @@
       </c>
       <c r="B737" t="n">
         <v>-0.57</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>-0.64</v>
       </c>
     </row>
   </sheetData>
@@ -20658,28 +20718,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3378361414573703</v>
+        <v>0.3366431269602249</v>
       </c>
       <c r="J2" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K2" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04046174902177357</v>
+        <v>0.04034221859258424</v>
       </c>
       <c r="M2" t="n">
-        <v>10.00398200495848</v>
+        <v>10.00649594386098</v>
       </c>
       <c r="N2" t="n">
-        <v>155.6482707143469</v>
+        <v>155.5043737305751</v>
       </c>
       <c r="O2" t="n">
-        <v>12.47590761084527</v>
+        <v>12.47013928272556</v>
       </c>
       <c r="P2" t="n">
-        <v>350.1539685273812</v>
+        <v>350.1658763045213</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20736,28 +20796,28 @@
         <v>0.1019</v>
       </c>
       <c r="I3" t="n">
-        <v>0.490971546490143</v>
+        <v>0.4887971718861103</v>
       </c>
       <c r="J3" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K3" t="n">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07276867848925694</v>
+        <v>0.07258453808056209</v>
       </c>
       <c r="M3" t="n">
-        <v>10.57349426194538</v>
+        <v>10.54984389082031</v>
       </c>
       <c r="N3" t="n">
-        <v>176.1025916470946</v>
+        <v>175.5627647125111</v>
       </c>
       <c r="O3" t="n">
-        <v>13.27036516630551</v>
+        <v>13.2500099891476</v>
       </c>
       <c r="P3" t="n">
-        <v>346.1357790317277</v>
+        <v>346.1574537272226</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20814,28 +20874,28 @@
         <v>0.0518</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4960289545708199</v>
+        <v>0.5097724710027178</v>
       </c>
       <c r="J4" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K4" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01257195789068499</v>
+        <v>0.01328460229757966</v>
       </c>
       <c r="M4" t="n">
-        <v>24.97700878599024</v>
+        <v>25.02778508494859</v>
       </c>
       <c r="N4" t="n">
-        <v>1110.824964765221</v>
+        <v>1111.370197779553</v>
       </c>
       <c r="O4" t="n">
-        <v>33.32904086176529</v>
+        <v>33.33721940683645</v>
       </c>
       <c r="P4" t="n">
-        <v>371.9239880442921</v>
+        <v>371.7858488987657</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20873,7 +20933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E628"/>
+  <dimension ref="A1:E630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24249,7 +24309,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-37.165891964127056,175.8816159135629</t>
+          <t>-37.16589196412705,175.8816159135629</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -24943,7 +25003,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-37.16589918174477,175.88152597117835</t>
+          <t>-37.16589918174478,175.88152597117835</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -33437,7 +33497,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>-37.16590756177565,175.8814215422909</t>
+          <t>-37.165907561775654,175.8814215422909</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -36764,6 +36824,56 @@
         </is>
       </c>
       <c r="E628" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-37.165889909524005,175.88164151685237</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>-37.16661161608638,175.88161188609627</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>-37.165908863948104,175.88140531498797</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-37.166617189588145,175.88154243134485</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-37.167268169698175,175.8823940512365</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0193/nzd0193.xlsx
+++ b/data/nzd0193/nzd0193.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E630"/>
+  <dimension ref="A1:E634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13131,6 +13131,90 @@
         <v>421.9077777777778</v>
       </c>
       <c r="E630" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>344.5981818181818</v>
+      </c>
+      <c r="C631" t="n">
+        <v>358.2177777777778</v>
+      </c>
+      <c r="D631" t="n">
+        <v>423.4155555555556</v>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>362.7618181818182</v>
+      </c>
+      <c r="C632" t="n">
+        <v>345.7322222222222</v>
+      </c>
+      <c r="D632" t="n">
+        <v>417.6144444444445</v>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>361.8627272727272</v>
+      </c>
+      <c r="C633" t="n">
+        <v>351.5866666666667</v>
+      </c>
+      <c r="D633" t="n">
+        <v>386.2433333333333</v>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>342.069090909091</v>
+      </c>
+      <c r="C634" t="n">
+        <v>360.9277777777777</v>
+      </c>
+      <c r="D634" t="n">
+        <v>417.4355555555555</v>
+      </c>
+      <c r="E634" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13147,7 +13231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B739"/>
+  <dimension ref="A1:B743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20545,6 +20629,46 @@
       </c>
       <c r="B739" t="n">
         <v>-0.64</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -20718,28 +20842,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3366431269602249</v>
+        <v>0.3290984271842841</v>
       </c>
       <c r="J2" t="n">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="K2" t="n">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04034221859258424</v>
+        <v>0.03889410607149302</v>
       </c>
       <c r="M2" t="n">
-        <v>10.00649594386098</v>
+        <v>10.00666022052594</v>
       </c>
       <c r="N2" t="n">
-        <v>155.5043737305751</v>
+        <v>155.305218668669</v>
       </c>
       <c r="O2" t="n">
-        <v>12.47013928272556</v>
+        <v>12.46215144622585</v>
       </c>
       <c r="P2" t="n">
-        <v>350.1658763045213</v>
+        <v>350.2411064185436</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20796,28 +20920,28 @@
         <v>0.1019</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4887971718861103</v>
+        <v>0.4829721822151358</v>
       </c>
       <c r="J3" t="n">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="K3" t="n">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07258453808056209</v>
+        <v>0.07169647934871448</v>
       </c>
       <c r="M3" t="n">
-        <v>10.54984389082031</v>
+        <v>10.51954747329815</v>
       </c>
       <c r="N3" t="n">
-        <v>175.5627647125111</v>
+        <v>174.7386443248392</v>
       </c>
       <c r="O3" t="n">
-        <v>13.2500099891476</v>
+        <v>13.21887454834334</v>
       </c>
       <c r="P3" t="n">
-        <v>346.1574537272226</v>
+        <v>346.2155832165863</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20874,28 +20998,28 @@
         <v>0.0518</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5097724710027178</v>
+        <v>0.5477148825169608</v>
       </c>
       <c r="J4" t="n">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="K4" t="n">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01328460229757966</v>
+        <v>0.01542963591814805</v>
       </c>
       <c r="M4" t="n">
-        <v>25.02778508494859</v>
+        <v>25.10345770496255</v>
       </c>
       <c r="N4" t="n">
-        <v>1111.370197779553</v>
+        <v>1109.473464211118</v>
       </c>
       <c r="O4" t="n">
-        <v>33.33721940683645</v>
+        <v>33.30875957178709</v>
       </c>
       <c r="P4" t="n">
-        <v>371.7858488987657</v>
+        <v>371.4040262516137</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20933,7 +21057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E630"/>
+  <dimension ref="A1:E634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36879,6 +37003,114 @@
         </is>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>-37.16591054925338,175.88138431315133</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>-37.16661186171272,175.88160882520995</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>-37.16726681464589,175.88241093600598</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>-37.16589422704333,175.88158771431168</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>-37.16662308156039,175.881469007381</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>-37.167272028138996,175.8823459725667</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>-37.165895034992715,175.88157764605864</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>-37.16661782062342,175.88153456760296</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>-37.16730022093183,175.88199466462478</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>-37.16591282191804,175.88135599171977</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>-37.16660942641404,175.8816391727767</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>-37.167272188906956,175.88234396928866</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0193/nzd0193.xlsx
+++ b/data/nzd0193/nzd0193.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E634"/>
+  <dimension ref="A1:E636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13215,6 +13215,42 @@
         <v>417.4355555555555</v>
       </c>
       <c r="E634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr"/>
+      <c r="C635" t="inlineStr"/>
+      <c r="D635" t="n">
+        <v>379.3288888888889</v>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>349.629090909091</v>
+      </c>
+      <c r="C636" t="n">
+        <v>346.3855555555555</v>
+      </c>
+      <c r="D636" t="inlineStr"/>
+      <c r="E636" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13231,7 +13267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B743"/>
+  <dimension ref="A1:B746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20669,6 +20705,36 @@
       </c>
       <c r="B743" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -20842,28 +20908,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3290984271842841</v>
+        <v>0.3262306214359657</v>
       </c>
       <c r="J2" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="K2" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03889410607149302</v>
+        <v>0.03833050593908083</v>
       </c>
       <c r="M2" t="n">
-        <v>10.00666022052594</v>
+        <v>10.00657302944289</v>
       </c>
       <c r="N2" t="n">
-        <v>155.305218668669</v>
+        <v>155.1803682345506</v>
       </c>
       <c r="O2" t="n">
-        <v>12.46215144622585</v>
+        <v>12.45714125449939</v>
       </c>
       <c r="P2" t="n">
-        <v>350.2411064185436</v>
+        <v>350.2698658719135</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20920,28 +20986,28 @@
         <v>0.1019</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4829721822151358</v>
+        <v>0.4791148092039325</v>
       </c>
       <c r="J3" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="K3" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07169647934871448</v>
+        <v>0.0707505467006363</v>
       </c>
       <c r="M3" t="n">
-        <v>10.51954747329815</v>
+        <v>10.52463636232024</v>
       </c>
       <c r="N3" t="n">
-        <v>174.7386443248392</v>
+        <v>174.7009076832072</v>
       </c>
       <c r="O3" t="n">
-        <v>13.21887454834334</v>
+        <v>13.2174470940196</v>
       </c>
       <c r="P3" t="n">
-        <v>346.2155832165863</v>
+        <v>346.2543080339523</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20998,28 +21064,28 @@
         <v>0.0518</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5477148825169608</v>
+        <v>0.5454204618852537</v>
       </c>
       <c r="J4" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="K4" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01542963591814805</v>
+        <v>0.01535758446329893</v>
       </c>
       <c r="M4" t="n">
-        <v>25.10345770496255</v>
+        <v>25.06042769394685</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.473464211118</v>
+        <v>1107.258506160068</v>
       </c>
       <c r="O4" t="n">
-        <v>33.30875957178709</v>
+        <v>33.27549407837648</v>
       </c>
       <c r="P4" t="n">
-        <v>371.4040262516137</v>
+        <v>371.4272285371557</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21057,7 +21123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E634"/>
+  <dimension ref="A1:E636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37111,6 +37177,48 @@
         </is>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:52+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr"/>
+      <c r="C635" t="inlineStr"/>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>-37.16730643471061,175.88191723349303</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>-37.16590602841163,175.88144065060092</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>-37.166622494461976,175.8814763236485</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr"/>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0193/nzd0193.xlsx
+++ b/data/nzd0193/nzd0193.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E636"/>
+  <dimension ref="A1:E642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13251,6 +13251,130 @@
       </c>
       <c r="D636" t="inlineStr"/>
       <c r="E636" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 21:59:44+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>355.9263636363636</v>
+      </c>
+      <c r="C637" t="n">
+        <v>349.4066666666667</v>
+      </c>
+      <c r="D637" t="n">
+        <v>374.6733333333333</v>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>352.8054545454545</v>
+      </c>
+      <c r="C638" t="n">
+        <v>346.4988888888889</v>
+      </c>
+      <c r="D638" t="n">
+        <v>386.1977777777778</v>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>356.1881818181818</v>
+      </c>
+      <c r="C639" t="n">
+        <v>346.9233333333333</v>
+      </c>
+      <c r="D639" t="n">
+        <v>424.9666666666667</v>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>358.6818181818182</v>
+      </c>
+      <c r="C640" t="n">
+        <v>342.1822222222222</v>
+      </c>
+      <c r="D640" t="inlineStr"/>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>352.3081818181818</v>
+      </c>
+      <c r="C641" t="n">
+        <v>344.5377777777778</v>
+      </c>
+      <c r="D641" t="n">
+        <v>438.1555555555556</v>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>352.9136363636364</v>
+      </c>
+      <c r="C642" t="n">
+        <v>350.5166666666667</v>
+      </c>
+      <c r="D642" t="n">
+        <v>433.8133333333333</v>
+      </c>
+      <c r="E642" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13267,7 +13391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B746"/>
+  <dimension ref="A1:B752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20735,6 +20859,66 @@
       </c>
       <c r="B746" t="n">
         <v>0.05</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>2025-08-11 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -20908,28 +21092,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3262306214359657</v>
+        <v>0.3189751606302784</v>
       </c>
       <c r="J2" t="n">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="K2" t="n">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03833050593908083</v>
+        <v>0.03734435644412015</v>
       </c>
       <c r="M2" t="n">
-        <v>10.00657302944289</v>
+        <v>9.946282564363244</v>
       </c>
       <c r="N2" t="n">
-        <v>155.1803682345506</v>
+        <v>153.7860687489084</v>
       </c>
       <c r="O2" t="n">
-        <v>12.45714125449939</v>
+        <v>12.40105111468009</v>
       </c>
       <c r="P2" t="n">
-        <v>350.2698658719135</v>
+        <v>350.342803081181</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20986,28 +21170,28 @@
         <v>0.1019</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4791148092039325</v>
+        <v>0.4571601757826459</v>
       </c>
       <c r="J3" t="n">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="K3" t="n">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0707505467006363</v>
+        <v>0.06545909089930335</v>
       </c>
       <c r="M3" t="n">
-        <v>10.52463636232024</v>
+        <v>10.5499512976028</v>
       </c>
       <c r="N3" t="n">
-        <v>174.7009076832072</v>
+        <v>174.4383424187809</v>
       </c>
       <c r="O3" t="n">
-        <v>13.2174470940196</v>
+        <v>13.20751083356667</v>
       </c>
       <c r="P3" t="n">
-        <v>346.2543080339523</v>
+        <v>346.4752110712776</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21064,28 +21248,28 @@
         <v>0.0518</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5454204618852537</v>
+        <v>0.591569279619622</v>
       </c>
       <c r="J4" t="n">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="K4" t="n">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01535758446329893</v>
+        <v>0.01812443600182179</v>
       </c>
       <c r="M4" t="n">
-        <v>25.06042769394685</v>
+        <v>25.19346709340984</v>
       </c>
       <c r="N4" t="n">
-        <v>1107.258506160068</v>
+        <v>1109.533740793162</v>
       </c>
       <c r="O4" t="n">
-        <v>33.27549407837648</v>
+        <v>33.30966437527045</v>
       </c>
       <c r="P4" t="n">
-        <v>371.4272285371557</v>
+        <v>370.9583017719465</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21123,7 +21307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E636"/>
+  <dimension ref="A1:E642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37219,6 +37403,164 @@
         </is>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 21:59:44+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>-37.165900369561285,175.88151116911322</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>-37.16661977962522,175.88151015516257</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>-37.167310618473635,175.88186509842978</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>-37.165903174075396,175.881476220356</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>-37.166622392618336,175.88147759279693</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>-37.16730026187125,175.88199415447278</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>-37.16590013428553,175.88151410102162</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>-37.166622011203756,175.8814823458822</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>-37.16726542064714,175.88242830604068</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>-37.16589789344378,175.88154202541202</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>-37.166626271653634,175.88142925316987</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr"/>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>-37.16590362093412,175.88147065176548</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>-37.16662415491092,175.88145563155146</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>-37.16725356756136,175.88257600107406</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>-37.16590307686113,175.88147743180437</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>-37.166618782152455,175.8815225853503</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>-37.16725747001278,175.8825273749482</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0193/nzd0193.xlsx
+++ b/data/nzd0193/nzd0193.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E642"/>
+  <dimension ref="A1:E646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13375,6 +13375,86 @@
         <v>433.8133333333333</v>
       </c>
       <c r="E642" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-27 21:59:54+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>331.5554545454545</v>
+      </c>
+      <c r="C643" t="n">
+        <v>326.5366666666667</v>
+      </c>
+      <c r="D643" t="n">
+        <v>351.7733333333333</v>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>360.7390909090909</v>
+      </c>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="inlineStr"/>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>366.1090909090909</v>
+      </c>
+      <c r="C645" t="n">
+        <v>352.3511111111111</v>
+      </c>
+      <c r="D645" t="n">
+        <v>374.9522222222223</v>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>360.1836363636364</v>
+      </c>
+      <c r="C646" t="n">
+        <v>347.3133333333333</v>
+      </c>
+      <c r="D646" t="n">
+        <v>364.3966666666667</v>
+      </c>
+      <c r="E646" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -13391,7 +13471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B752"/>
+  <dimension ref="A1:B756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20919,6 +20999,46 @@
       </c>
       <c r="B752" t="n">
         <v>-0.75</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>2025-08-27 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -21092,28 +21212,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3189751606302784</v>
+        <v>0.3141434204880983</v>
       </c>
       <c r="J2" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K2" t="n">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03734435644412015</v>
+        <v>0.03639353738735895</v>
       </c>
       <c r="M2" t="n">
-        <v>9.946282564363244</v>
+        <v>9.945352756330189</v>
       </c>
       <c r="N2" t="n">
-        <v>153.7860687489084</v>
+        <v>154.0955854372193</v>
       </c>
       <c r="O2" t="n">
-        <v>12.40105111468009</v>
+        <v>12.41352429559065</v>
       </c>
       <c r="P2" t="n">
-        <v>350.342803081181</v>
+        <v>350.3914090918227</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21170,28 +21290,28 @@
         <v>0.1019</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4571601757826459</v>
+        <v>0.4423824464172916</v>
       </c>
       <c r="J3" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K3" t="n">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06545909089930335</v>
+        <v>0.06144332490257487</v>
       </c>
       <c r="M3" t="n">
-        <v>10.5499512976028</v>
+        <v>10.5863355130811</v>
       </c>
       <c r="N3" t="n">
-        <v>174.4383424187809</v>
+        <v>175.5322368343262</v>
       </c>
       <c r="O3" t="n">
-        <v>13.20751083356667</v>
+        <v>13.24885794452964</v>
       </c>
       <c r="P3" t="n">
-        <v>346.4752110712776</v>
+        <v>346.624479232859</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21248,28 +21368,28 @@
         <v>0.0518</v>
       </c>
       <c r="I4" t="n">
-        <v>0.591569279619622</v>
+        <v>0.5675642747601394</v>
       </c>
       <c r="J4" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K4" t="n">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01812443600182179</v>
+        <v>0.01683241563103011</v>
       </c>
       <c r="M4" t="n">
-        <v>25.19346709340984</v>
+        <v>25.13457523342796</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.533740793162</v>
+        <v>1106.403288645165</v>
       </c>
       <c r="O4" t="n">
-        <v>33.30966437527045</v>
+        <v>33.26264103532919</v>
       </c>
       <c r="P4" t="n">
-        <v>370.9583017719465</v>
+        <v>371.2030292188714</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21307,7 +21427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E642"/>
+  <dimension ref="A1:E646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37561,6 +37681,106 @@
         </is>
       </c>
     </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-27 21:59:54+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>-37.16592226949778,175.8812382572049</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-37.166640330871154,175.88125404840994</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>-37.167331197463994,175.88160865353822</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-04 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>-37.16589604472399,175.88156506328704</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="inlineStr"/>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>-37.16589121907879,175.88162519793687</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>-37.16661713367361,175.8815431281321</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>-37.167310367847904,175.8818682215567</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>-37.165896543870595,175.8815588431627</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-37.16662166074152,175.88148671324583</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>-37.167319853625685,175.8817500155402</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0193/nzd0193.xlsx
+++ b/data/nzd0193/nzd0193.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E646"/>
+  <dimension ref="A1:E647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13457,6 +13457,25 @@
       <c r="E646" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>359.0190909090909</v>
+      </c>
+      <c r="C647" t="n">
+        <v>351.2922222222222</v>
+      </c>
+      <c r="D647" t="inlineStr"/>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -13471,7 +13490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B756"/>
+  <dimension ref="A1:B757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21039,6 +21058,16 @@
       </c>
       <c r="B756" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B757" t="n">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -21427,7 +21456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E646"/>
+  <dimension ref="A1:E647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37781,6 +37810,29 @@
         </is>
       </c>
     </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>-37.16589759036188,175.88154580227985</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-37.16661808521876,175.88153127030603</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr"/>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0193/nzd0193.xlsx
+++ b/data/nzd0193/nzd0193.xlsx
@@ -21241,28 +21241,28 @@
         <v>0.06320000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3141434204880983</v>
+        <v>0.3142631823104504</v>
       </c>
       <c r="J2" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K2" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03639353738735895</v>
+        <v>0.03653055828369578</v>
       </c>
       <c r="M2" t="n">
-        <v>9.945352756330189</v>
+        <v>9.928951865950937</v>
       </c>
       <c r="N2" t="n">
-        <v>154.0955854372193</v>
+        <v>153.831992513856</v>
       </c>
       <c r="O2" t="n">
-        <v>12.41352429559065</v>
+        <v>12.40290258422826</v>
       </c>
       <c r="P2" t="n">
-        <v>350.3914090918227</v>
+        <v>350.3901965127091</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21319,28 +21319,28 @@
         <v>0.1019</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4423824464172916</v>
+        <v>0.4402963660159057</v>
       </c>
       <c r="J3" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K3" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06144332490257487</v>
+        <v>0.06105433218075873</v>
       </c>
       <c r="M3" t="n">
-        <v>10.5863355130811</v>
+        <v>10.5811275525054</v>
       </c>
       <c r="N3" t="n">
-        <v>175.5322368343262</v>
+        <v>175.314804936713</v>
       </c>
       <c r="O3" t="n">
-        <v>13.24885794452964</v>
+        <v>13.24064971731799</v>
       </c>
       <c r="P3" t="n">
-        <v>346.624479232859</v>
+        <v>346.6456216731406</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21400,7 +21400,7 @@
         <v>0.5675642747601394</v>
       </c>
       <c r="J4" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K4" t="n">
         <v>491</v>

--- a/data/nzd0193/nzd0193.xlsx
+++ b/data/nzd0193/nzd0193.xlsx
@@ -21232,13 +21232,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0481</v>
+        <v>0.0709</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06320000000000001</v>
+        <v>0.0914</v>
       </c>
       <c r="I2" t="n">
         <v>0.3142612820584555</v>
@@ -21310,13 +21310,13 @@
         <v>0.5000000000015745</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07779999999999999</v>
+        <v>0.0547</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1019</v>
+        <v>0.0678</v>
       </c>
       <c r="I3" t="n">
         <v>0.4403070895403314</v>
@@ -21388,13 +21388,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0426</v>
+        <v>0.0569</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0518</v>
+        <v>0.1113</v>
       </c>
       <c r="I4" t="n">
         <v>0.5675723893061844</v>
